--- a/Assets/_ExcelData/MonsterData.xlsx
+++ b/Assets/_ExcelData/MonsterData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\(R&amp;D)ChatAPI_QuestGenerator\Assets\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\(R&amp;D)ChatAPI_QuestGenerator\Assets\_ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A99970A-C426-4E15-B3E5-4305E840196D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19BD2D75-95A9-47CF-A695-156FE15F5B48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{FABA762E-1D3F-45C2-A656-0C79C23C5F7F}"/>
   </bookViews>
@@ -478,21 +478,21 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.75" customWidth="1"/>
+    <col min="2" max="2" width="9.5" customWidth="1"/>
     <col min="3" max="3" width="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
@@ -500,10 +500,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
         <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -511,10 +511,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
         <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -522,10 +522,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
         <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
       </c>
       <c r="C4">
         <v>5</v>

--- a/Assets/_ExcelData/MonsterData.xlsx
+++ b/Assets/_ExcelData/MonsterData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\(R&amp;D)ChatAPI_QuestGenerator\Assets\_ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19BD2D75-95A9-47CF-A695-156FE15F5B48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F80D350D-F689-4B85-9963-93355983CCA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{FABA762E-1D3F-45C2-A656-0C79C23C5F7F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -71,6 +71,30 @@
   </si>
   <si>
     <t>파이어보어</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>빨간달팽이</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>토끼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SS001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SS002</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>스텀프</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SS003</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -475,14 +499,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD9CBF0E-8926-4897-ADFC-E7D5CCA22D88}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="11.125" customWidth="1"/>
     <col min="2" max="2" width="9.5" customWidth="1"/>
     <col min="3" max="3" width="8" customWidth="1"/>
   </cols>
@@ -531,6 +556,39 @@
         <v>5</v>
       </c>
     </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/_ExcelData/MonsterData.xlsx
+++ b/Assets/_ExcelData/MonsterData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\(R&amp;D)ChatAPI_QuestGenerator\Assets\_ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F80D350D-F689-4B85-9963-93355983CCA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E576DA88-4EC5-4AB0-B101-D8321228951F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{FABA762E-1D3F-45C2-A656-0C79C23C5F7F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -50,51 +50,19 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>MM001</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MM002</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>슬라임</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>파랑슬라임</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MM003</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>파이어보어</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>빨간달팽이</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>토끼</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>SS001</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>SS002</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>스텀프</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>SS003</t>
+    <t>변이체 1호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Info</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>B10134</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>변이된지 얼마 안된 변이체. 속도도 느리고 청력도 좋지 않다.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -157,12 +125,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -499,10 +470,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD9CBF0E-8926-4897-ADFC-E7D5CCA22D88}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -510,9 +481,10 @@
     <col min="1" max="1" width="11.125" customWidth="1"/>
     <col min="2" max="2" width="9.5" customWidth="1"/>
     <col min="3" max="3" width="8" customWidth="1"/>
+    <col min="4" max="4" width="41.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -522,71 +494,22 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
         <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="D2" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7">
-        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/_ExcelData/MonsterData.xlsx
+++ b/Assets/_ExcelData/MonsterData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\(R&amp;D)ChatAPI_QuestGenerator\Assets\_ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E576DA88-4EC5-4AB0-B101-D8321228951F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D8EA1E0-192B-46E5-BE1E-009C8AE29BCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{FABA762E-1D3F-45C2-A656-0C79C23C5F7F}"/>
   </bookViews>
@@ -473,7 +473,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="R16" sqref="R16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Assets/_ExcelData/MonsterData.xlsx
+++ b/Assets/_ExcelData/MonsterData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\(R&amp;D)ChatAPI_QuestGenerator\Assets\_ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D8EA1E0-192B-46E5-BE1E-009C8AE29BCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{013A5C63-1B3D-4706-AD89-5F3E90B099CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{FABA762E-1D3F-45C2-A656-0C79C23C5F7F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -50,10 +50,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>변이체 1호</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Info</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -63,6 +59,53 @@
   </si>
   <si>
     <t>변이된지 얼마 안된 변이체. 속도도 느리고 청력도 좋지 않다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>변이체1호</t>
+  </si>
+  <si>
+    <t>스크리머</t>
+  </si>
+  <si>
+    <t>부머</t>
+  </si>
+  <si>
+    <t>릭커</t>
+  </si>
+  <si>
+    <t>리자드럴</t>
+  </si>
+  <si>
+    <t>B30254</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>B50248</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>M10289</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>M10300</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>몸은 약하지만 시야가 넓고 매우 빠르다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>느리고 둔하지만 체력이 많다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스 몬스터. 오른손의 강한 공격은 위협적이므로 조심해야 한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스 몬스터. 강한 맷집으로 플레이어를 위협한다.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -470,10 +513,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD9CBF0E-8926-4897-ADFC-E7D5CCA22D88}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R16" sqref="R16"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -495,21 +538,77 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5">
+        <v>10</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6">
+        <v>10</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/_ExcelData/MonsterData.xlsx
+++ b/Assets/_ExcelData/MonsterData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\(R&amp;D)ChatAPI_QuestGenerator\Assets\_ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{013A5C63-1B3D-4706-AD89-5F3E90B099CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C42B065-D02B-492C-BC6A-69FD3A75BDD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{FABA762E-1D3F-45C2-A656-0C79C23C5F7F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -106,6 +106,18 @@
   </si>
   <si>
     <t>보스 몬스터. 강한 맷집으로 플레이어를 위협한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>스캐빈저</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>B35421</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>사람의 모습을 하고 있는 변이체. 외형은 사람과 똑같지만 행동은 변이체와 동일하다. 준수한 체력과 빠른 이동속도와 탐지 능력을 가지고 있다.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -513,10 +525,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD9CBF0E-8926-4897-ADFC-E7D5CCA22D88}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -611,6 +623,20 @@
         <v>18</v>
       </c>
     </row>
+    <row r="7" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/_ExcelData/MonsterData.xlsx
+++ b/Assets/_ExcelData/MonsterData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\(R&amp;D)ChatAPI_QuestGenerator\Assets\_ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C42B065-D02B-492C-BC6A-69FD3A75BDD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C9B3B69-CD2E-4EEF-8437-C536C0515D5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{FABA762E-1D3F-45C2-A656-0C79C23C5F7F}"/>
+    <workbookView minimized="1" xWindow="39090" yWindow="3630" windowWidth="28800" windowHeight="12645" xr2:uid="{FABA762E-1D3F-45C2-A656-0C79C23C5F7F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -528,7 +528,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
